--- a/data/trans_camb/P1426-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Provincia-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.5779867779434664</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.1112535858851463</v>
+        <v>-0.111253585885146</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.408543293627484</v>
+        <v>-1.626765153632476</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.970727488908832</v>
+        <v>-2.109473596263765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.391246899728641</v>
+        <v>-2.396454049962662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.071480456067422</v>
+        <v>-3.316451377126825</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.171034064284926</v>
+        <v>-1.380890877190881</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.631713552678245</v>
+        <v>-1.729552841589137</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.389311784194842</v>
+        <v>3.124974573484785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.962276520722044</v>
+        <v>2.027351853014451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.870049190951949</v>
+        <v>3.07342616415923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.619144710305163</v>
+        <v>1.4798909959569</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.490287122900784</v>
+        <v>2.392122495480993</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.310108620839972</v>
+        <v>1.253194951413544</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.2810060255131461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.05408934803821464</v>
+        <v>-0.05408934803821446</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5972621468814185</v>
+        <v>-0.6697972161785848</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.734155577444376</v>
+        <v>-0.7142674378886117</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6745638123494963</v>
+        <v>-0.6715805472573834</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7139977445131667</v>
+        <v>-0.7503547367652073</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4134018338309162</v>
+        <v>-0.5023007281913915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.540203564698852</v>
+        <v>-0.5747542937612845</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.89878214381644</v>
+        <v>4.457277079284809</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.074843303340219</v>
+        <v>3.381405740312002</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.427596495692868</v>
+        <v>3.049146432228494</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.00200416703055</v>
+        <v>1.787202965749341</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.128403181311198</v>
+        <v>1.838928923937984</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.288683232213769</v>
+        <v>1.072745246702711</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.789877154155493</v>
+        <v>-1.728934954599658</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04234240027335372</v>
+        <v>0.04717693509540058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.725107498919929</v>
+        <v>-3.44568425825102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.893700779080722</v>
+        <v>-2.844106334545873</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.077700159549245</v>
+        <v>-2.15082809591607</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8525706996608871</v>
+        <v>-0.8916377615441489</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.735436124116205</v>
+        <v>0.703942714615453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.250143381989826</v>
+        <v>3.261305932343098</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08637155770989018</v>
+        <v>-0.02349632004855967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8785873920781386</v>
+        <v>0.7660978193560374</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1021256462031122</v>
+        <v>0.1470838712568422</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.611240523322859</v>
+        <v>1.594743242681129</v>
       </c>
     </row>
     <row r="13">
@@ -874,19 +874,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.4892841437940504</v>
+        <v>-0.6270043334406021</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8993704801936727</v>
+        <v>-0.8774226972953342</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6853790727306611</v>
+        <v>-0.6789702541230522</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8166144339485418</v>
+        <v>-0.8186683025409425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3809681279527719</v>
+        <v>-0.3996611029500723</v>
       </c>
     </row>
     <row r="15">
@@ -899,16 +899,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>0.1604754428849877</v>
+        <v>0.1100054811037602</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7202240171067193</v>
+        <v>0.4889393236721883</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2192688117437669</v>
+        <v>0.3664360305056344</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.535541373827203</v>
+        <v>1.525197898568823</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.8315249105515552</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.747419596650574</v>
+        <v>5.747419596650573</v>
       </c>
     </row>
     <row r="17">
@@ -949,22 +949,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.440310090322753</v>
+        <v>-3.736788152536176</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.442338640316834</v>
+        <v>4.33467383465951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.145967380718831</v>
+        <v>-2.187065306532499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.849978450063711</v>
+        <v>1.990165291410444</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.214797121195956</v>
+        <v>-2.122022691230082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.784519940297045</v>
+        <v>3.814545018370359</v>
       </c>
     </row>
     <row r="18">
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1912466462952536</v>
+        <v>0.3415325264229396</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.74391771410556</v>
+        <v>10.69339863958451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.034713748768734</v>
+        <v>1.200236862119074</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.281750325293604</v>
+        <v>6.517241480007742</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2307687091745322</v>
+        <v>0.3088535397189267</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.708368511877482</v>
+        <v>7.759115837650421</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.526102887245424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3.636372170742471</v>
+        <v>3.63637217074247</v>
       </c>
     </row>
     <row r="20">
@@ -1028,17 +1028,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>0.9915225916104273</v>
-      </c>
-      <c r="E20" s="6" t="inlineStr"/>
+        <v>0.9132203460725363</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F20" s="6" t="n">
-        <v>0.3958724203592225</v>
+        <v>0.5812469073367825</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8865999548874871</v>
+        <v>-0.8843579366296519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.247372864706498</v>
+        <v>1.39898145234237</v>
       </c>
     </row>
     <row r="21">
@@ -1050,17 +1052,19 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>18.17292396509198</v>
-      </c>
-      <c r="E21" s="6" t="inlineStr"/>
+        <v>25.70790522429265</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>4.34026065440445</v>
+      </c>
       <c r="F21" s="6" t="n">
-        <v>9.474400037006816</v>
+        <v>9.395784048699417</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6145051037460824</v>
+        <v>0.5200776833815731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.508831396794642</v>
+        <v>9.605756317332316</v>
       </c>
     </row>
     <row r="22">
@@ -1084,7 +1088,7 @@
         <v>-0.483405520223176</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.759543204560273</v>
+        <v>2.759543204560274</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2916174814032129</v>
@@ -1101,22 +1105,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5322012407451882</v>
+        <v>-0.4313106644253276</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4634070098600379</v>
+        <v>0.3216764897190676</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.778672037005816</v>
+        <v>-2.051744413313774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.013770094277331</v>
+        <v>0.9052873430657925</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8587362637303921</v>
+        <v>-0.7586496235536835</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.101438894461143</v>
+        <v>1.154755650353283</v>
       </c>
     </row>
     <row r="24">
@@ -1127,22 +1131,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.111911994232904</v>
+        <v>3.086776100349966</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.952747963613469</v>
+        <v>3.880485197667727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.276944602375328</v>
+        <v>1.069653805335575</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.440656311807629</v>
+        <v>4.633769012622121</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.471183137014018</v>
+        <v>1.524034529825934</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.704331165992285</v>
+        <v>3.657210588787904</v>
       </c>
     </row>
     <row r="25">
@@ -1179,22 +1183,20 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6478505029989465</v>
+        <v>-0.5809072116203184</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02375612475156086</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.08756282272050359</v>
+      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>0.253583712443581</v>
+        <v>0.2006670492984183</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.617634273257335</v>
+        <v>-0.5731777682067006</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4815180400949831</v>
+        <v>0.6327562011638673</v>
       </c>
     </row>
     <row r="27">
@@ -1205,22 +1207,20 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12.72641485894755</v>
+        <v>11.86735999417113</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13.56054676736048</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>5.001055070524456</v>
-      </c>
+        <v>13.61730989572827</v>
+      </c>
+      <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>8.673910817373331</v>
+        <v>8.653446008035285</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.718648427230771</v>
+        <v>2.669656736111407</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6.843895040389718</v>
+        <v>6.587623230505973</v>
       </c>
     </row>
     <row r="28">
@@ -1238,13 +1238,13 @@
         <v>-2.283869892924334</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.558581543666094</v>
+        <v>3.558581543666093</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.470881064887132</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.31296956651327</v>
+        <v>2.312969566513269</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-1.869422105721232</v>
@@ -1261,22 +1261,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.116677716337239</v>
+        <v>-5.578587381012315</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2929947423862295</v>
+        <v>-0.525466875391435</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.870484189597859</v>
+        <v>-5.400732893254279</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.166087178511748</v>
+        <v>-1.693553226924037</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.123572292316256</v>
+        <v>-4.375426261598105</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07837955690346989</v>
+        <v>0.4768906632905514</v>
       </c>
     </row>
     <row r="30">
@@ -1287,22 +1287,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7589388469229499</v>
+        <v>0.593500356415516</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.055165141347457</v>
+        <v>7.238461539522718</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.420350950197991</v>
+        <v>2.596561595644789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.72100303413106</v>
+        <v>5.988139198124727</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9253700744963088</v>
+        <v>0.7786833902324053</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.288266659793034</v>
+        <v>5.697908817407252</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1322,7 @@
         <v>-0.2681475060991905</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.4216636108450083</v>
+        <v>0.421663610845008</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.4137007998520043</v>
@@ -1342,19 +1342,19 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.125319241636713</v>
+        <v>-0.1760934598681616</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7429336196795004</v>
+        <v>-0.7197318098231584</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.264547316690161</v>
+        <v>-0.2290975572252281</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7263996900961971</v>
+        <v>-0.7570244112001463</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0271122736635695</v>
+        <v>0.006492510848510619</v>
       </c>
     </row>
     <row r="33">
@@ -1365,22 +1365,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.403990934485655</v>
+        <v>1.470653088491052</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.908817880284369</v>
+        <v>4.59923750468832</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7195111068244144</v>
+        <v>0.8162221926338527</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.955567553254472</v>
+        <v>1.986943333498018</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3840863680294011</v>
+        <v>0.3391785227681783</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.680144583162452</v>
+        <v>1.799075302010126</v>
       </c>
     </row>
     <row r="34">
@@ -1421,22 +1421,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.7283372150741</v>
+        <v>-3.961544179915546</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6.896384669410736</v>
+        <v>6.961975680842958</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.155956752413947</v>
+        <v>-0.9896904733824397</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.496468536646553</v>
+        <v>7.709410888180719</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.734212926915318</v>
+        <v>-1.792024138609809</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.20631535616644</v>
+        <v>8.287774085984747</v>
       </c>
     </row>
     <row r="36">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.423990236778479</v>
+        <v>1.378618811436862</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.08281514385954</v>
+        <v>14.47470339777063</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.001481642136846</v>
+        <v>4.301261907223068</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.86065210637434</v>
+        <v>13.90462845787699</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.944841000351182</v>
+        <v>1.801457171437405</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.25026780508824</v>
+        <v>13.13202409456352</v>
       </c>
     </row>
     <row r="37">
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8339859350278688</v>
+        <v>-0.8441627902361066</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1.302693424218523</v>
+        <v>1.10451783124082</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5935077740708405</v>
+        <v>-0.5290200450941029</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1.97943907238933</v>
+        <v>2.082468521033842</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5652498566900322</v>
+        <v>-0.5736803674284919</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.338105248599745</v>
+        <v>2.248486994712431</v>
       </c>
     </row>
     <row r="39">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.2066519130118</v>
+        <v>1.241973776625861</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8.839710075443707</v>
+        <v>9.002152462608743</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>7.254717252653533</v>
+        <v>8.205314651882754</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>30.35827484166927</v>
+        <v>30.35078788137898</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.387278498685615</v>
+        <v>1.279838026000691</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>9.960872358838422</v>
+        <v>9.797068980161065</v>
       </c>
     </row>
     <row r="40">
@@ -1564,7 +1564,7 @@
         <v>2.782010783396494</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5.143250677075613</v>
+        <v>5.14325067707561</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1.244524297015898</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.131164787063264</v>
+        <v>-2.027066992809892</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.121208102648458</v>
+        <v>0.8848884332687049</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.9323182118555804</v>
+        <v>1.111439767360359</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.402969361809836</v>
+        <v>3.375509319922009</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.0533594842149487</v>
+        <v>0.007435277131181468</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.917293008257524</v>
+        <v>2.719551467423005</v>
       </c>
     </row>
     <row r="42">
@@ -1607,22 +1607,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.24467594096184</v>
+        <v>1.317436616445168</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.405174962136269</v>
+        <v>5.337711252800952</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.882112406126632</v>
+        <v>4.924653187919317</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.132813279920019</v>
+        <v>7.146646136419031</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.63260782045375</v>
+        <v>2.621920762057467</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.636197668638837</v>
+        <v>5.558942081352821</v>
       </c>
     </row>
     <row r="43">
@@ -1642,7 +1642,7 @@
         <v>1.820628916233659</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>3.365893102215071</v>
+        <v>3.36589310221507</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6334255885391197</v>
@@ -1659,22 +1659,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6249925859807448</v>
+        <v>-0.5996599761839403</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2685654826659723</v>
+        <v>0.1588550175159146</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2556036663203525</v>
+        <v>0.4765422692566406</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1.380427065642997</v>
+        <v>1.401978999884066</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04747458939200419</v>
+        <v>-0.02514257558229941</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.111259219383436</v>
+        <v>0.9502496769641792</v>
       </c>
     </row>
     <row r="45">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8648354389948326</v>
+        <v>0.9254611645134138</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.686880681631714</v>
+        <v>3.285399616211128</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.945763962532177</v>
+        <v>5.612305930860075</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>7.88679647745067</v>
+        <v>7.847827967783939</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.783117382787679</v>
+        <v>1.798708175654557</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.052770729558945</v>
+        <v>3.774106134110798</v>
       </c>
     </row>
     <row r="46">
@@ -1724,13 +1724,13 @@
         <v>-0.2940131447362166</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1.41598605074597</v>
+        <v>1.415986050745971</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.1546590631130469</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.399915603834232</v>
+        <v>1.399915603834231</v>
       </c>
     </row>
     <row r="47">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.2322050103829863</v>
+        <v>-0.2691279319812677</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.4531728953013201</v>
+        <v>0.4279429237050074</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.151089848106367</v>
+        <v>-1.21087151427282</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.2617390060160075</v>
+        <v>0.2424760890482586</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.4750682765890833</v>
+        <v>-0.4829126446371593</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.7179097382525357</v>
+        <v>0.6630817827489521</v>
       </c>
     </row>
     <row r="48">
@@ -1767,22 +1767,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.607559818759264</v>
+        <v>1.541441379250552</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.429620734779572</v>
+        <v>2.449330986184832</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.5516231823484911</v>
+        <v>0.5573702271605151</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.532719167697061</v>
+        <v>2.474044314011904</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7276141116987588</v>
+        <v>0.7799613800567</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.217422523712088</v>
+        <v>2.132526523670336</v>
       </c>
     </row>
     <row r="49">
@@ -1796,13 +1796,13 @@
         <v>1.134596724930535</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>2.497315159239973</v>
+        <v>2.497315159239972</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>-0.3094995482712506</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>1.49056955755314</v>
+        <v>1.490569557553141</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2040745159168516</v>
@@ -1819,22 +1819,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4516887692686801</v>
+        <v>-0.4624409596257394</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2517670522403571</v>
+        <v>0.1922340991800152</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8268154178803599</v>
+        <v>-0.8153667693099943</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.08050047714236896</v>
+        <v>0.03521225600980597</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4348920095703064</v>
+        <v>-0.4815798844471145</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5539755995038137</v>
+        <v>0.5227363613122569</v>
       </c>
     </row>
     <row r="51">
@@ -1845,22 +1845,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>8.729226592136596</v>
+        <v>6.910750258186947</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>13.99305943442355</v>
+        <v>11.17652420199697</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.785762993056932</v>
+        <v>1.857704950435271</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>4.921272310038621</v>
+        <v>5.552638220103257</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.830758282895668</v>
+        <v>1.933830132741575</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>4.959880008707422</v>
+        <v>4.52751983671185</v>
       </c>
     </row>
     <row r="52">
@@ -1884,7 +1884,7 @@
         <v>0.1832827409928212</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>2.825887113242434</v>
+        <v>2.825887113242433</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0.04744299820814632</v>
@@ -1901,22 +1901,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.6787269547777631</v>
+        <v>-0.6490633925087377</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.42862685779368</v>
+        <v>2.312552698071689</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.4507470095306949</v>
+        <v>-0.4952723096967137</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.143792552696347</v>
+        <v>2.135272296708975</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.4270551858219535</v>
+        <v>-0.4254958562918416</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.455367803977934</v>
+        <v>2.374858651768212</v>
       </c>
     </row>
     <row r="54">
@@ -1927,22 +1927,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.5321097723689854</v>
+        <v>0.5347288568932428</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.971868041036964</v>
+        <v>3.879829030544936</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.8758082162362555</v>
+        <v>0.8365977541592998</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.559468171930644</v>
+        <v>3.564991784864313</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.4940303718232147</v>
+        <v>0.5063757714770132</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.511896628533315</v>
+        <v>3.477232305429793</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
         <v>0.09892784464265406</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>1.525287759241202</v>
+        <v>1.525287759241201</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02791949921189076</v>
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3672231611945717</v>
+        <v>-0.3621788506780518</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>1.267404144230611</v>
+        <v>1.220097870051027</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2058097462416336</v>
+        <v>-0.2293350723775881</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.9445673898487463</v>
+        <v>0.9405590518504118</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2204049726797562</v>
+        <v>-0.2246349893793827</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.254301831781107</v>
+        <v>1.186959967361414</v>
       </c>
     </row>
     <row r="57">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4475197046356508</v>
+        <v>0.4476366003309776</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>3.246238591532286</v>
+        <v>3.20768264798985</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6015630394910959</v>
+        <v>0.5254646689911758</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>2.359137969748936</v>
+        <v>2.343049558507921</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3209181768934963</v>
+        <v>0.3530370546545523</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>2.361555661684846</v>
+        <v>2.377378355667097</v>
       </c>
     </row>
     <row r="58">
